--- a/INTLINE/data/578/NESDC/QGDP/Table 3A_historical.xlsx
+++ b/INTLINE/data/578/NESDC/QGDP/Table 3A_historical.xlsx
@@ -1,90 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Table 3" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table 3" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>Agriculture</t>
-  </si>
-  <si>
-    <t>Non- Agriculture</t>
-  </si>
-  <si>
-    <t>Mining and Quarrying</t>
-  </si>
-  <si>
-    <t>Manu- facturing</t>
-  </si>
-  <si>
-    <t>Construction</t>
-  </si>
-  <si>
-    <t>Wholesale and Retail Trade, Repair of Vehicles and Personal and Household Goods</t>
-  </si>
-  <si>
-    <t>Accommodation and food service activities</t>
-  </si>
-  <si>
-    <t>Financial and insurance activities</t>
-  </si>
-  <si>
-    <t>Public Administration and Defence; Compulsory Social Security</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Health and Social Work</t>
-  </si>
-  <si>
-    <t>Private Household with Employed Persons</t>
-  </si>
-  <si>
-    <t>Gross Domestic Product</t>
-  </si>
-  <si>
-    <t>Plus : Net Factor Income Payment from the Rest of the World</t>
-  </si>
-  <si>
-    <t>Gross National Income</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -99,18 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -118,15 +57,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -415,2662 +353,2993 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:BU16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:73">
-      <c r="B1" s="1">
+    <row r="1">
+      <c r="B1" s="1" t="n">
         <v>1951</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="1" t="n">
         <v>1952</v>
       </c>
-      <c r="D1" s="1">
+      <c r="D1" s="1" t="n">
         <v>1953</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="1" t="n">
         <v>1954</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F1" s="1" t="n">
         <v>1955</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G1" s="1" t="n">
         <v>1956</v>
       </c>
-      <c r="H1" s="1">
+      <c r="H1" s="1" t="n">
         <v>1957</v>
       </c>
-      <c r="I1" s="1">
+      <c r="I1" s="1" t="n">
         <v>1958</v>
       </c>
-      <c r="J1" s="1">
+      <c r="J1" s="1" t="n">
         <v>1959</v>
       </c>
-      <c r="K1" s="1">
+      <c r="K1" s="1" t="n">
         <v>1960</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L1" s="1" t="n">
         <v>1961</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M1" s="1" t="n">
         <v>1962</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N1" s="1" t="n">
         <v>1963</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O1" s="1" t="n">
         <v>1964</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P1" s="1" t="n">
         <v>1965</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" s="1" t="n">
         <v>1966</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R1" s="1" t="n">
         <v>1967</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S1" s="1" t="n">
         <v>1968</v>
       </c>
-      <c r="T1" s="1">
+      <c r="T1" s="1" t="n">
         <v>1969</v>
       </c>
-      <c r="U1" s="1">
+      <c r="U1" s="1" t="n">
         <v>1970</v>
       </c>
-      <c r="V1" s="1">
+      <c r="V1" s="1" t="n">
         <v>1971</v>
       </c>
-      <c r="W1" s="1">
+      <c r="W1" s="1" t="n">
         <v>1972</v>
       </c>
-      <c r="X1" s="1">
+      <c r="X1" s="1" t="n">
         <v>1973</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Y1" s="1" t="n">
         <v>1974</v>
       </c>
-      <c r="Z1" s="1">
+      <c r="Z1" s="1" t="n">
         <v>1975</v>
       </c>
-      <c r="AA1" s="1">
+      <c r="AA1" s="1" t="n">
         <v>1976</v>
       </c>
-      <c r="AB1" s="1">
+      <c r="AB1" s="1" t="n">
         <v>1977</v>
       </c>
-      <c r="AC1" s="1">
+      <c r="AC1" s="1" t="n">
         <v>1978</v>
       </c>
-      <c r="AD1" s="1">
+      <c r="AD1" s="1" t="n">
         <v>1979</v>
       </c>
-      <c r="AE1" s="1">
+      <c r="AE1" s="1" t="n">
         <v>1980</v>
       </c>
-      <c r="AF1" s="1">
+      <c r="AF1" s="1" t="n">
         <v>1981</v>
       </c>
-      <c r="AG1" s="1">
+      <c r="AG1" s="1" t="n">
         <v>1982</v>
       </c>
-      <c r="AH1" s="1">
+      <c r="AH1" s="1" t="n">
         <v>1983</v>
       </c>
-      <c r="AI1" s="1">
+      <c r="AI1" s="1" t="n">
         <v>1984</v>
       </c>
-      <c r="AJ1" s="1">
+      <c r="AJ1" s="1" t="n">
         <v>1985</v>
       </c>
-      <c r="AK1" s="1">
+      <c r="AK1" s="1" t="n">
         <v>1986</v>
       </c>
-      <c r="AL1" s="1">
+      <c r="AL1" s="1" t="n">
         <v>1987</v>
       </c>
-      <c r="AM1" s="1">
+      <c r="AM1" s="1" t="n">
         <v>1988</v>
       </c>
-      <c r="AN1" s="1">
+      <c r="AN1" s="1" t="n">
         <v>1989</v>
       </c>
-      <c r="AO1" s="1">
+      <c r="AO1" s="1" t="n">
         <v>1990</v>
       </c>
-      <c r="AP1" s="1">
+      <c r="AP1" s="1" t="n">
         <v>1991</v>
       </c>
-      <c r="AQ1" s="1">
+      <c r="AQ1" s="1" t="n">
         <v>1992</v>
       </c>
-      <c r="AR1" s="1">
+      <c r="AR1" s="1" t="n">
         <v>1993</v>
       </c>
-      <c r="AS1" s="1">
+      <c r="AS1" s="1" t="n">
         <v>1994</v>
       </c>
-      <c r="AT1" s="1">
+      <c r="AT1" s="1" t="n">
         <v>1995</v>
       </c>
-      <c r="AU1" s="1">
+      <c r="AU1" s="1" t="n">
         <v>1996</v>
       </c>
-      <c r="AV1" s="1">
+      <c r="AV1" s="1" t="n">
         <v>1997</v>
       </c>
-      <c r="AW1" s="1">
+      <c r="AW1" s="1" t="n">
         <v>1998</v>
       </c>
-      <c r="AX1" s="1">
+      <c r="AX1" s="1" t="n">
         <v>1999</v>
       </c>
-      <c r="AY1" s="1">
+      <c r="AY1" s="1" t="n">
         <v>2000</v>
       </c>
-      <c r="AZ1" s="1">
+      <c r="AZ1" s="1" t="n">
         <v>2001</v>
       </c>
-      <c r="BA1" s="1">
+      <c r="BA1" s="1" t="n">
         <v>2002</v>
       </c>
-      <c r="BB1" s="1">
+      <c r="BB1" s="1" t="n">
         <v>2003</v>
       </c>
-      <c r="BC1" s="1">
+      <c r="BC1" s="1" t="n">
         <v>2004</v>
       </c>
-      <c r="BD1" s="1">
+      <c r="BD1" s="1" t="n">
         <v>2005</v>
       </c>
-      <c r="BE1" s="1">
+      <c r="BE1" s="1" t="n">
         <v>2006</v>
       </c>
-      <c r="BF1" s="1">
+      <c r="BF1" s="1" t="n">
         <v>2007</v>
       </c>
-      <c r="BG1" s="1">
+      <c r="BG1" s="1" t="n">
         <v>2008</v>
       </c>
-      <c r="BH1" s="1">
+      <c r="BH1" s="1" t="n">
         <v>2009</v>
       </c>
-      <c r="BI1" s="1">
+      <c r="BI1" s="1" t="n">
         <v>2010</v>
       </c>
-      <c r="BJ1" s="1">
+      <c r="BJ1" s="1" t="n">
         <v>2011</v>
       </c>
-      <c r="BK1" s="1">
+      <c r="BK1" s="1" t="n">
         <v>2012</v>
       </c>
-      <c r="BL1" s="1">
+      <c r="BL1" s="1" t="n">
         <v>2013</v>
       </c>
-      <c r="BM1" s="1">
+      <c r="BM1" s="1" t="n">
         <v>2014</v>
       </c>
-      <c r="BN1" s="1">
+      <c r="BN1" s="1" t="n">
         <v>2015</v>
       </c>
-      <c r="BO1" s="1">
+      <c r="BO1" s="1" t="n">
         <v>2016</v>
       </c>
-      <c r="BP1" s="1">
+      <c r="BP1" s="1" t="n">
         <v>2017</v>
       </c>
-      <c r="BQ1" s="1">
+      <c r="BQ1" s="1" t="n">
         <v>2018</v>
       </c>
-      <c r="BR1" s="1">
+      <c r="BR1" s="1" t="n">
         <v>2019</v>
       </c>
-      <c r="BS1" s="1">
+      <c r="BS1" s="1" t="n">
         <v>2020</v>
       </c>
-      <c r="BT1" s="1">
+      <c r="BT1" s="1" t="n">
         <v>2021</v>
       </c>
-      <c r="BU1" s="1">
+      <c r="BU1" s="1" t="n">
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="1:73">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>13664.63041</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>12554.03697</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>13618.3288</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>12487.33104</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>16244.96112</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>15864.37215</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>16026.29785</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>16169.08388</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>17026.98275</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>19738.28896</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>21272.9515</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>21831.38177</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="n">
         <v>22564.25733</v>
       </c>
-      <c r="O2">
+      <c r="O2" t="n">
         <v>22874.86932</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="n">
         <v>26960.95248</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="n">
         <v>34062.48406</v>
       </c>
-      <c r="R2">
+      <c r="R2" t="n">
         <v>31592.43057</v>
       </c>
-      <c r="S2">
+      <c r="S2" t="n">
         <v>33193.18542</v>
       </c>
-      <c r="T2">
+      <c r="T2" t="n">
         <v>36542.0739</v>
       </c>
-      <c r="U2">
+      <c r="U2" t="n">
         <v>38448.99887</v>
       </c>
-      <c r="V2">
+      <c r="V2" t="n">
         <v>37016.1883</v>
       </c>
-      <c r="W2">
+      <c r="W2" t="n">
         <v>43494.83609</v>
       </c>
-      <c r="X2">
+      <c r="X2" t="n">
         <v>61809.33106</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" t="n">
         <v>75947.69629000001</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" t="n">
         <v>82097.10918</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" t="n">
         <v>93079.72698000001</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" t="n">
         <v>100860.6939</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" t="n">
         <v>120459.0279</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" t="n">
         <v>135087.7738</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" t="n">
         <v>153960</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" t="n">
         <v>162390</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" t="n">
         <v>156098</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" t="n">
         <v>184752</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" t="n">
         <v>173642</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" t="n">
         <v>167026</v>
       </c>
-      <c r="AK2">
+      <c r="AK2" t="n">
         <v>177537</v>
       </c>
-      <c r="AL2">
+      <c r="AL2" t="n">
         <v>204521</v>
       </c>
-      <c r="AM2">
+      <c r="AM2" t="n">
         <v>252346</v>
       </c>
-      <c r="AN2">
+      <c r="AN2" t="n">
         <v>279947</v>
       </c>
-      <c r="AO2">
+      <c r="AO2" t="n">
         <v>272935</v>
       </c>
-      <c r="AP2">
+      <c r="AP2" t="n">
         <v>317085</v>
       </c>
-      <c r="AQ2">
+      <c r="AQ2" t="n">
         <v>348127</v>
       </c>
-      <c r="AR2">
+      <c r="AR2" t="n">
         <v>261917</v>
       </c>
-      <c r="AS2">
+      <c r="AS2" t="n">
         <v>318278</v>
       </c>
-      <c r="AT2">
+      <c r="AT2" t="n">
         <v>383011</v>
       </c>
-      <c r="AU2">
+      <c r="AU2" t="n">
         <v>420416</v>
       </c>
-      <c r="AV2">
+      <c r="AV2" t="n">
         <v>426985</v>
       </c>
-      <c r="AW2">
+      <c r="AW2" t="n">
         <v>482343</v>
       </c>
-      <c r="AX2">
+      <c r="AX2" t="n">
         <v>425959</v>
       </c>
-      <c r="AY2">
+      <c r="AY2" t="n">
         <v>430927</v>
       </c>
-      <c r="AZ2">
+      <c r="AZ2" t="n">
         <v>458563</v>
       </c>
-      <c r="BA2">
+      <c r="BA2" t="n">
         <v>501502</v>
       </c>
-      <c r="BB2">
+      <c r="BB2" t="n">
         <v>596439</v>
       </c>
-      <c r="BC2">
+      <c r="BC2" t="n">
         <v>646130</v>
       </c>
-      <c r="BD2">
+      <c r="BD2" t="n">
         <v>700096</v>
       </c>
-      <c r="BE2">
+      <c r="BE2" t="n">
         <v>789828</v>
       </c>
-      <c r="BF2">
+      <c r="BF2" t="n">
         <v>848424</v>
       </c>
-      <c r="BG2">
+      <c r="BG2" t="n">
         <v>977724</v>
       </c>
-      <c r="BH2">
+      <c r="BH2" t="n">
         <v>945297</v>
       </c>
-      <c r="BI2">
+      <c r="BI2" t="n">
         <v>1137252</v>
       </c>
-      <c r="BJ2">
+      <c r="BJ2" t="n">
         <v>1310673</v>
       </c>
-      <c r="BK2">
+      <c r="BK2" t="n">
         <v>1421601</v>
       </c>
-      <c r="BL2">
+      <c r="BL2" t="n">
         <v>1462282</v>
       </c>
-      <c r="BM2">
+      <c r="BM2" t="n">
         <v>1334795</v>
       </c>
-      <c r="BN2">
+      <c r="BN2" t="n">
         <v>1219421</v>
       </c>
-      <c r="BO2">
+      <c r="BO2" t="n">
         <v>1236980</v>
       </c>
-      <c r="BP2">
+      <c r="BP2" t="n">
         <v>1302041</v>
       </c>
-      <c r="BQ2">
+      <c r="BQ2" t="n">
         <v>1342912</v>
       </c>
-      <c r="BR2">
+      <c r="BR2" t="n">
         <v>1372657</v>
       </c>
-      <c r="BS2">
+      <c r="BS2" t="n">
         <v>1360047</v>
       </c>
-      <c r="BT2">
+      <c r="BT2" t="n">
         <v>1380331</v>
       </c>
+      <c r="BU2" t="inlineStr"/>
     </row>
-    <row r="3" spans="1:73">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Non- Agriculture</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>16902.80492</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>19584.81236</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>21673.05082</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>22649.26848</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>26548.30886</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>28320.04193</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>29297.53439</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>30970.65393</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>35514.72989</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>39338.78899</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>43204.52966</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>48045.46235</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="n">
         <v>51972.68616</v>
       </c>
-      <c r="O3">
+      <c r="O3" t="n">
         <v>58799.72029</v>
       </c>
-      <c r="P3">
+      <c r="P3" t="n">
         <v>64839.05621</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" t="n">
         <v>75333.37828</v>
       </c>
-      <c r="R3">
+      <c r="R3" t="n">
         <v>85853.52471</v>
       </c>
-      <c r="S3">
+      <c r="S3" t="n">
         <v>93263.3851</v>
       </c>
-      <c r="T3">
+      <c r="T3" t="n">
         <v>102586.5674</v>
       </c>
-      <c r="U3">
+      <c r="U3" t="n">
         <v>109830.7579</v>
       </c>
-      <c r="V3">
+      <c r="V3" t="n">
         <v>117451.7763</v>
       </c>
-      <c r="W3">
+      <c r="W3" t="n">
         <v>127965.7303</v>
       </c>
-      <c r="X3">
+      <c r="X3" t="n">
         <v>162530.8001</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" t="n">
         <v>206143.17</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" t="n">
         <v>225268.8777</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" t="n">
         <v>256846.988</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" t="n">
         <v>305798.5366</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" t="n">
         <v>370523.8485</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" t="n">
         <v>427492.4544</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" t="n">
         <v>508522</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" t="n">
         <v>597966</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" t="n">
         <v>685471</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" t="n">
         <v>736237</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" t="n">
         <v>814428</v>
       </c>
-      <c r="AJ3">
+      <c r="AJ3" t="n">
         <v>889470</v>
       </c>
-      <c r="AK3">
+      <c r="AK3" t="n">
         <v>955860</v>
       </c>
-      <c r="AL3">
+      <c r="AL3" t="n">
         <v>1095392</v>
       </c>
-      <c r="AM3">
+      <c r="AM3" t="n">
         <v>1307458</v>
       </c>
-      <c r="AN3">
+      <c r="AN3" t="n">
         <v>1577045</v>
       </c>
-      <c r="AO3">
+      <c r="AO3" t="n">
         <v>1910610</v>
       </c>
-      <c r="AP3">
+      <c r="AP3" t="n">
         <v>2189550</v>
       </c>
-      <c r="AQ3">
+      <c r="AQ3" t="n">
         <v>2482787</v>
       </c>
-      <c r="AR3">
+      <c r="AR3" t="n">
         <v>3001509</v>
       </c>
-      <c r="AS3">
+      <c r="AS3" t="n">
         <v>3370812</v>
       </c>
-      <c r="AT3">
+      <c r="AT3" t="n">
         <v>3834603</v>
       </c>
-      <c r="AU3">
+      <c r="AU3" t="n">
         <v>4218188</v>
       </c>
-      <c r="AV3">
+      <c r="AV3" t="n">
         <v>4283325</v>
       </c>
-      <c r="AW3">
+      <c r="AW3" t="n">
         <v>4219210</v>
       </c>
-      <c r="AX3">
+      <c r="AX3" t="n">
         <v>4363867</v>
       </c>
-      <c r="AY3">
+      <c r="AY3" t="n">
         <v>4638893</v>
       </c>
-      <c r="AZ3">
+      <c r="AZ3" t="n">
         <v>4886438</v>
       </c>
-      <c r="BA3">
+      <c r="BA3" t="n">
         <v>5268076</v>
       </c>
-      <c r="BB3">
+      <c r="BB3" t="n">
         <v>5720864</v>
       </c>
-      <c r="BC3">
+      <c r="BC3" t="n">
         <v>6308152</v>
       </c>
-      <c r="BD3">
+      <c r="BD3" t="n">
         <v>6914315</v>
       </c>
-      <c r="BE3">
+      <c r="BE3" t="n">
         <v>7610816</v>
       </c>
-      <c r="BF3">
+      <c r="BF3" t="n">
         <v>8227877</v>
       </c>
-      <c r="BG3">
+      <c r="BG3" t="n">
         <v>8729205</v>
       </c>
-      <c r="BH3">
+      <c r="BH3" t="n">
         <v>8713370</v>
       </c>
-      <c r="BI3">
+      <c r="BI3" t="n">
         <v>9670893</v>
       </c>
-      <c r="BJ3">
+      <c r="BJ3" t="n">
         <v>9996233</v>
       </c>
-      <c r="BK3">
+      <c r="BK3" t="n">
         <v>10935741</v>
       </c>
-      <c r="BL3">
+      <c r="BL3" t="n">
         <v>11452876</v>
       </c>
-      <c r="BM3">
+      <c r="BM3" t="n">
         <v>11895509</v>
       </c>
-      <c r="BN3">
+      <c r="BN3" t="n">
         <v>12524059</v>
       </c>
-      <c r="BO3">
+      <c r="BO3" t="n">
         <v>13353357</v>
       </c>
-      <c r="BP3">
+      <c r="BP3" t="n">
         <v>14186623</v>
       </c>
-      <c r="BQ3">
+      <c r="BQ3" t="n">
         <v>15030431</v>
       </c>
-      <c r="BR3">
+      <c r="BR3" t="n">
         <v>15519754</v>
       </c>
-      <c r="BS3">
+      <c r="BS3" t="n">
         <v>14276844</v>
       </c>
-      <c r="BT3">
+      <c r="BT3" t="n">
         <v>14798388</v>
       </c>
+      <c r="BU3" t="inlineStr"/>
     </row>
-    <row r="4" spans="1:73">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Mining and Quarrying</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>333.6085833</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>349.3134636</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>327.5303762</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>339.7227965</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>382.1088395</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>433.0482006</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>433.6249194</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>325.9119628</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>399.8828307</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>475.0772862</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>573.305339</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="n">
         <v>635.5388656</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="n">
         <v>688.1009658</v>
       </c>
-      <c r="O4">
+      <c r="O4" t="n">
         <v>1049.896414</v>
       </c>
-      <c r="P4">
+      <c r="P4" t="n">
         <v>1478.634952</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" t="n">
         <v>1636.405352</v>
       </c>
-      <c r="R4">
+      <c r="R4" t="n">
         <v>1762.722591</v>
       </c>
-      <c r="S4">
+      <c r="S4" t="n">
         <v>1834.207048</v>
       </c>
-      <c r="T4">
+      <c r="T4" t="n">
         <v>2118.462885</v>
       </c>
-      <c r="U4">
+      <c r="U4" t="n">
         <v>2320.30135</v>
       </c>
-      <c r="V4">
+      <c r="V4" t="n">
         <v>2454.796225</v>
       </c>
-      <c r="W4">
+      <c r="W4" t="n">
         <v>2534.75184</v>
       </c>
-      <c r="X4">
+      <c r="X4" t="n">
         <v>2714.78435</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" t="n">
         <v>3812.982661</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" t="n">
         <v>3485.217592</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" t="n">
         <v>4507.696347</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" t="n">
         <v>6543.652233</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" t="n">
         <v>8794.058607999999</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" t="n">
         <v>9794.827561</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" t="n">
         <v>11727</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" t="n">
         <v>11208</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" t="n">
         <v>13416</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" t="n">
         <v>14106</v>
       </c>
-      <c r="AI4">
+      <c r="AI4" t="n">
         <v>18543</v>
       </c>
-      <c r="AJ4">
+      <c r="AJ4" t="n">
         <v>25962</v>
       </c>
-      <c r="AK4">
+      <c r="AK4" t="n">
         <v>19753</v>
       </c>
-      <c r="AL4">
+      <c r="AL4" t="n">
         <v>22221</v>
       </c>
-      <c r="AM4">
+      <c r="AM4" t="n">
         <v>26599</v>
       </c>
-      <c r="AN4">
+      <c r="AN4" t="n">
         <v>31885</v>
       </c>
-      <c r="AO4">
+      <c r="AO4" t="n">
         <v>34835</v>
       </c>
-      <c r="AP4">
+      <c r="AP4" t="n">
         <v>39372</v>
       </c>
-      <c r="AQ4">
+      <c r="AQ4" t="n">
         <v>42306</v>
       </c>
-      <c r="AR4">
+      <c r="AR4" t="n">
         <v>48414</v>
       </c>
-      <c r="AS4">
+      <c r="AS4" t="n">
         <v>53965</v>
       </c>
-      <c r="AT4">
+      <c r="AT4" t="n">
         <v>57620</v>
       </c>
-      <c r="AU4">
+      <c r="AU4" t="n">
         <v>71625</v>
       </c>
-      <c r="AV4">
+      <c r="AV4" t="n">
         <v>87971</v>
       </c>
-      <c r="AW4">
+      <c r="AW4" t="n">
         <v>89464</v>
       </c>
-      <c r="AX4">
+      <c r="AX4" t="n">
         <v>90724</v>
       </c>
-      <c r="AY4">
+      <c r="AY4" t="n">
         <v>118757</v>
       </c>
-      <c r="AZ4">
+      <c r="AZ4" t="n">
         <v>127961</v>
       </c>
-      <c r="BA4">
+      <c r="BA4" t="n">
         <v>137028</v>
       </c>
-      <c r="BB4">
+      <c r="BB4" t="n">
         <v>155302</v>
       </c>
-      <c r="BC4">
+      <c r="BC4" t="n">
         <v>175486</v>
       </c>
-      <c r="BD4">
+      <c r="BD4" t="n">
         <v>222126</v>
       </c>
-      <c r="BE4">
+      <c r="BE4" t="n">
         <v>265022</v>
       </c>
-      <c r="BF4">
+      <c r="BF4" t="n">
         <v>286315</v>
       </c>
-      <c r="BG4">
+      <c r="BG4" t="n">
         <v>330615</v>
       </c>
-      <c r="BH4">
+      <c r="BH4" t="n">
         <v>326742</v>
       </c>
-      <c r="BI4">
+      <c r="BI4" t="n">
         <v>366999</v>
       </c>
-      <c r="BJ4">
+      <c r="BJ4" t="n">
         <v>400576</v>
       </c>
-      <c r="BK4">
+      <c r="BK4" t="n">
         <v>483427</v>
       </c>
-      <c r="BL4">
+      <c r="BL4" t="n">
         <v>496562</v>
       </c>
-      <c r="BM4">
+      <c r="BM4" t="n">
         <v>495627</v>
       </c>
-      <c r="BN4">
+      <c r="BN4" t="n">
         <v>431425</v>
       </c>
-      <c r="BO4">
+      <c r="BO4" t="n">
         <v>399753</v>
       </c>
-      <c r="BP4">
+      <c r="BP4" t="n">
         <v>386153</v>
       </c>
-      <c r="BQ4">
+      <c r="BQ4" t="n">
         <v>416992</v>
       </c>
-      <c r="BR4">
+      <c r="BR4" t="n">
         <v>411821</v>
       </c>
-      <c r="BS4">
+      <c r="BS4" t="n">
         <v>325192</v>
       </c>
-      <c r="BT4">
+      <c r="BT4" t="n">
         <v>351571</v>
       </c>
+      <c r="BU4" t="inlineStr"/>
     </row>
-    <row r="5" spans="1:73">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Manu- facturing</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>4215.000913</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>4777.601565</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>5397.212823</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>5489.66379</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>6753.262543</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>7221.648129</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>6989.997585</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>7567.039431</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>8035.71419</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>8548.811099</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="n">
         <v>9772.852314</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="n">
         <v>11379.2325</v>
       </c>
-      <c r="N5">
+      <c r="N5" t="n">
         <v>12208.28708</v>
       </c>
-      <c r="O5">
+      <c r="O5" t="n">
         <v>13197.96702</v>
       </c>
-      <c r="P5">
+      <c r="P5" t="n">
         <v>15148.99614</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" t="n">
         <v>17592.90484</v>
       </c>
-      <c r="R5">
+      <c r="R5" t="n">
         <v>21074.80757</v>
       </c>
-      <c r="S5">
+      <c r="S5" t="n">
         <v>22577.35042</v>
       </c>
-      <c r="T5">
+      <c r="T5" t="n">
         <v>25473.66617</v>
       </c>
-      <c r="U5">
+      <c r="U5" t="n">
         <v>23934.30934</v>
       </c>
-      <c r="V5">
+      <c r="V5" t="n">
         <v>27428.27247</v>
       </c>
-      <c r="W5">
+      <c r="W5" t="n">
         <v>31885.59587</v>
       </c>
-      <c r="X5">
+      <c r="X5" t="n">
         <v>43425.5522</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" t="n">
         <v>54456.3329</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" t="n">
         <v>57675.34118</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" t="n">
         <v>69437.29807999999</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" t="n">
         <v>82926.37869</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" t="n">
         <v>99450.14601</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" t="n">
         <v>119769.3084</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" t="n">
         <v>142504</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" t="n">
         <v>172143</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" t="n">
         <v>179438</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" t="n">
         <v>203837</v>
       </c>
-      <c r="AI5">
+      <c r="AI5" t="n">
         <v>226360</v>
       </c>
-      <c r="AJ5">
+      <c r="AJ5" t="n">
         <v>231598</v>
       </c>
-      <c r="AK5">
+      <c r="AK5" t="n">
         <v>270605</v>
       </c>
-      <c r="AL5">
+      <c r="AL5" t="n">
         <v>315291</v>
       </c>
-      <c r="AM5">
+      <c r="AM5" t="n">
         <v>403034</v>
       </c>
-      <c r="AN5">
+      <c r="AN5" t="n">
         <v>496714</v>
       </c>
-      <c r="AO5">
+      <c r="AO5" t="n">
         <v>594003</v>
       </c>
-      <c r="AP5">
+      <c r="AP5" t="n">
         <v>707901</v>
       </c>
-      <c r="AQ5">
+      <c r="AQ5" t="n">
         <v>778987</v>
       </c>
-      <c r="AR5">
+      <c r="AR5" t="n">
         <v>854190</v>
       </c>
-      <c r="AS5">
+      <c r="AS5" t="n">
         <v>955529</v>
       </c>
-      <c r="AT5">
+      <c r="AT5" t="n">
         <v>1105357</v>
       </c>
-      <c r="AU5">
+      <c r="AU5" t="n">
         <v>1190544</v>
       </c>
-      <c r="AV5">
+      <c r="AV5" t="n">
         <v>1246733</v>
       </c>
-      <c r="AW5">
+      <c r="AW5" t="n">
         <v>1276371</v>
       </c>
-      <c r="AX5">
+      <c r="AX5" t="n">
         <v>1349531</v>
       </c>
-      <c r="AY5">
+      <c r="AY5" t="n">
         <v>1438584</v>
       </c>
-      <c r="AZ5">
+      <c r="AZ5" t="n">
         <v>1487341</v>
       </c>
-      <c r="BA5">
+      <c r="BA5" t="n">
         <v>1645197</v>
       </c>
-      <c r="BB5">
+      <c r="BB5" t="n">
         <v>1868690</v>
       </c>
-      <c r="BC5">
+      <c r="BC5" t="n">
         <v>2045878</v>
       </c>
-      <c r="BD5">
+      <c r="BD5" t="n">
         <v>2255013</v>
       </c>
-      <c r="BE5">
+      <c r="BE5" t="n">
         <v>2534313</v>
       </c>
-      <c r="BF5">
+      <c r="BF5" t="n">
         <v>2776209</v>
       </c>
-      <c r="BG5">
+      <c r="BG5" t="n">
         <v>2965926</v>
       </c>
-      <c r="BH5">
+      <c r="BH5" t="n">
         <v>2845650</v>
       </c>
-      <c r="BI5">
+      <c r="BI5" t="n">
         <v>3343011</v>
       </c>
-      <c r="BJ5">
+      <c r="BJ5" t="n">
         <v>3278537</v>
       </c>
-      <c r="BK5">
+      <c r="BK5" t="n">
         <v>3456693</v>
       </c>
-      <c r="BL5">
+      <c r="BL5" t="n">
         <v>3563123</v>
       </c>
-      <c r="BM5">
+      <c r="BM5" t="n">
         <v>3648058</v>
       </c>
-      <c r="BN5">
+      <c r="BN5" t="n">
         <v>3762150</v>
       </c>
-      <c r="BO5">
+      <c r="BO5" t="n">
         <v>3960436</v>
       </c>
-      <c r="BP5">
+      <c r="BP5" t="n">
         <v>4184234</v>
       </c>
-      <c r="BQ5">
+      <c r="BQ5" t="n">
         <v>4373784</v>
       </c>
-      <c r="BR5">
+      <c r="BR5" t="n">
         <v>4327771</v>
       </c>
-      <c r="BS5">
+      <c r="BS5" t="n">
         <v>3985840</v>
       </c>
-      <c r="BT5">
+      <c r="BT5" t="n">
         <v>4369679</v>
       </c>
+      <c r="BU5" t="inlineStr"/>
     </row>
-    <row r="6" spans="1:73">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>541.1197046</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>784.3408868</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>886.9087262</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>897.9884246</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>1059.009636</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>1156.2089</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>1466.358325</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>1455.774752</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>1773.176428</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>1968.365552</v>
       </c>
-      <c r="L6">
+      <c r="L6" t="n">
         <v>2143.541127</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="n">
         <v>2615.87527</v>
       </c>
-      <c r="N6">
+      <c r="N6" t="n">
         <v>2904.954964</v>
       </c>
-      <c r="O6">
+      <c r="O6" t="n">
         <v>3344.253713</v>
       </c>
-      <c r="P6">
+      <c r="P6" t="n">
         <v>3763.795216</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" t="n">
         <v>4940.831103</v>
       </c>
-      <c r="R6">
+      <c r="R6" t="n">
         <v>5948.770567</v>
       </c>
-      <c r="S6">
+      <c r="S6" t="n">
         <v>6354.314022</v>
       </c>
-      <c r="T6">
+      <c r="T6" t="n">
         <v>6582.282236</v>
       </c>
-      <c r="U6">
+      <c r="U6" t="n">
         <v>6607.878668</v>
       </c>
-      <c r="V6">
+      <c r="V6" t="n">
         <v>6749.029312</v>
       </c>
-      <c r="W6">
+      <c r="W6" t="n">
         <v>6733.81547</v>
       </c>
-      <c r="X6">
+      <c r="X6" t="n">
         <v>7579.028909</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" t="n">
         <v>9042.093371999999</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" t="n">
         <v>9799.404613999999</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" t="n">
         <v>12756.80644</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" t="n">
         <v>16665.07338</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" t="n">
         <v>20617.29142</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" t="n">
         <v>22824.14371</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" t="n">
         <v>29383</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" t="n">
         <v>34696</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" t="n">
         <v>39890</v>
       </c>
-      <c r="AH6">
+      <c r="AH6" t="n">
         <v>46632</v>
       </c>
-      <c r="AI6">
+      <c r="AI6" t="n">
         <v>52427</v>
       </c>
-      <c r="AJ6">
+      <c r="AJ6" t="n">
         <v>53903</v>
       </c>
-      <c r="AK6">
+      <c r="AK6" t="n">
         <v>55715</v>
       </c>
-      <c r="AL6">
+      <c r="AL6" t="n">
         <v>62641</v>
       </c>
-      <c r="AM6">
+      <c r="AM6" t="n">
         <v>74449</v>
       </c>
-      <c r="AN6">
+      <c r="AN6" t="n">
         <v>102123</v>
       </c>
-      <c r="AO6">
+      <c r="AO6" t="n">
         <v>136235</v>
       </c>
-      <c r="AP6">
+      <c r="AP6" t="n">
         <v>168278</v>
       </c>
-      <c r="AQ6">
+      <c r="AQ6" t="n">
         <v>190529</v>
       </c>
-      <c r="AR6">
+      <c r="AR6" t="n">
         <v>222090</v>
       </c>
-      <c r="AS6">
+      <c r="AS6" t="n">
         <v>269536</v>
       </c>
-      <c r="AT6">
+      <c r="AT6" t="n">
         <v>306831</v>
       </c>
-      <c r="AU6">
+      <c r="AU6" t="n">
         <v>349259</v>
       </c>
-      <c r="AV6">
+      <c r="AV6" t="n">
         <v>266582</v>
       </c>
-      <c r="AW6">
+      <c r="AW6" t="n">
         <v>186334</v>
       </c>
-      <c r="AX6">
+      <c r="AX6" t="n">
         <v>168650</v>
       </c>
-      <c r="AY6">
+      <c r="AY6" t="n">
         <v>152323</v>
       </c>
-      <c r="AZ6">
+      <c r="AZ6" t="n">
         <v>155028</v>
       </c>
-      <c r="BA6">
+      <c r="BA6" t="n">
         <v>166717</v>
       </c>
-      <c r="BB6">
+      <c r="BB6" t="n">
         <v>175591</v>
       </c>
-      <c r="BC6">
+      <c r="BC6" t="n">
         <v>197014</v>
       </c>
-      <c r="BD6">
+      <c r="BD6" t="n">
         <v>226654</v>
       </c>
-      <c r="BE6">
+      <c r="BE6" t="n">
         <v>245217</v>
       </c>
-      <c r="BF6">
+      <c r="BF6" t="n">
         <v>263388</v>
       </c>
-      <c r="BG6">
+      <c r="BG6" t="n">
         <v>266944</v>
       </c>
-      <c r="BH6">
+      <c r="BH6" t="n">
         <v>271258</v>
       </c>
-      <c r="BI6">
+      <c r="BI6" t="n">
         <v>302793</v>
       </c>
-      <c r="BJ6">
+      <c r="BJ6" t="n">
         <v>306622</v>
       </c>
-      <c r="BK6">
+      <c r="BK6" t="n">
         <v>340956</v>
       </c>
-      <c r="BL6">
+      <c r="BL6" t="n">
         <v>344786</v>
       </c>
-      <c r="BM6">
+      <c r="BM6" t="n">
         <v>337042</v>
       </c>
-      <c r="BN6">
+      <c r="BN6" t="n">
         <v>379939</v>
       </c>
-      <c r="BO6">
+      <c r="BO6" t="n">
         <v>400376</v>
       </c>
-      <c r="BP6">
+      <c r="BP6" t="n">
         <v>394729</v>
       </c>
-      <c r="BQ6">
+      <c r="BQ6" t="n">
         <v>410157</v>
       </c>
-      <c r="BR6">
+      <c r="BR6" t="n">
         <v>419088</v>
       </c>
-      <c r="BS6">
+      <c r="BS6" t="n">
         <v>422015</v>
       </c>
-      <c r="BT6">
+      <c r="BT6" t="n">
         <v>439169</v>
       </c>
+      <c r="BU6" t="inlineStr"/>
     </row>
-    <row r="7" spans="1:73">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AR7">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Wholesale and Retail Trade, Repair of Vehicles and Personal and Household Goods</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="inlineStr"/>
+      <c r="AP7" t="inlineStr"/>
+      <c r="AQ7" t="inlineStr"/>
+      <c r="AR7" t="n">
         <v>585705</v>
       </c>
-      <c r="AS7">
+      <c r="AS7" t="n">
         <v>659721</v>
       </c>
-      <c r="AT7">
+      <c r="AT7" t="n">
         <v>735788</v>
       </c>
-      <c r="AU7">
+      <c r="AU7" t="n">
         <v>805256</v>
       </c>
-      <c r="AV7">
+      <c r="AV7" t="n">
         <v>844836</v>
       </c>
-      <c r="AW7">
+      <c r="AW7" t="n">
         <v>815841</v>
       </c>
-      <c r="AX7">
+      <c r="AX7" t="n">
         <v>825178</v>
       </c>
-      <c r="AY7">
+      <c r="AY7" t="n">
         <v>845027</v>
       </c>
-      <c r="AZ7">
+      <c r="AZ7" t="n">
         <v>882430</v>
       </c>
-      <c r="BA7">
+      <c r="BA7" t="n">
         <v>905557</v>
       </c>
-      <c r="BB7">
+      <c r="BB7" t="n">
         <v>948470</v>
       </c>
-      <c r="BC7">
+      <c r="BC7" t="n">
         <v>1027698</v>
       </c>
-      <c r="BD7">
+      <c r="BD7" t="n">
         <v>1100217</v>
       </c>
-      <c r="BE7">
+      <c r="BE7" t="n">
         <v>1178724</v>
       </c>
-      <c r="BF7">
+      <c r="BF7" t="n">
         <v>1265305</v>
       </c>
-      <c r="BG7">
+      <c r="BG7" t="n">
         <v>1337532</v>
       </c>
-      <c r="BH7">
+      <c r="BH7" t="n">
         <v>1381998</v>
       </c>
-      <c r="BI7">
+      <c r="BI7" t="n">
         <v>1516327</v>
       </c>
-      <c r="BJ7">
+      <c r="BJ7" t="n">
         <v>1570716</v>
       </c>
-      <c r="BK7">
+      <c r="BK7" t="n">
         <v>1709703</v>
       </c>
-      <c r="BL7">
+      <c r="BL7" t="n">
         <v>1729206</v>
       </c>
-      <c r="BM7">
+      <c r="BM7" t="n">
         <v>1816182</v>
       </c>
-      <c r="BN7">
+      <c r="BN7" t="n">
         <v>1966439</v>
       </c>
-      <c r="BO7">
+      <c r="BO7" t="n">
         <v>2187129</v>
       </c>
-      <c r="BP7">
+      <c r="BP7" t="n">
         <v>2379660</v>
       </c>
-      <c r="BQ7">
+      <c r="BQ7" t="n">
         <v>2580985</v>
       </c>
-      <c r="BR7">
+      <c r="BR7" t="n">
         <v>2747487</v>
       </c>
-      <c r="BS7">
+      <c r="BS7" t="n">
         <v>2652340</v>
       </c>
-      <c r="BT7">
+      <c r="BT7" t="n">
         <v>2703123</v>
       </c>
+      <c r="BU7" t="inlineStr"/>
     </row>
-    <row r="8" spans="1:73">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AR8">
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Accommodation and food service activities</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr"/>
+      <c r="AR8" t="n">
         <v>133819</v>
       </c>
-      <c r="AS8">
+      <c r="AS8" t="n">
         <v>140206</v>
       </c>
-      <c r="AT8">
+      <c r="AT8" t="n">
         <v>157884</v>
       </c>
-      <c r="AU8">
+      <c r="AU8" t="n">
         <v>172938</v>
       </c>
-      <c r="AV8">
+      <c r="AV8" t="n">
         <v>172185</v>
       </c>
-      <c r="AW8">
+      <c r="AW8" t="n">
         <v>171053</v>
       </c>
-      <c r="AX8">
+      <c r="AX8" t="n">
         <v>184937</v>
       </c>
-      <c r="AY8">
+      <c r="AY8" t="n">
         <v>199020</v>
       </c>
-      <c r="AZ8">
+      <c r="AZ8" t="n">
         <v>208188</v>
       </c>
-      <c r="BA8">
+      <c r="BA8" t="n">
         <v>216851</v>
       </c>
-      <c r="BB8">
+      <c r="BB8" t="n">
         <v>214444</v>
       </c>
-      <c r="BC8">
+      <c r="BC8" t="n">
         <v>229936</v>
       </c>
-      <c r="BD8">
+      <c r="BD8" t="n">
         <v>231321</v>
       </c>
-      <c r="BE8">
+      <c r="BE8" t="n">
         <v>255237</v>
       </c>
-      <c r="BF8">
+      <c r="BF8" t="n">
         <v>277778</v>
       </c>
-      <c r="BG8">
+      <c r="BG8" t="n">
         <v>298874</v>
       </c>
-      <c r="BH8">
+      <c r="BH8" t="n">
         <v>285444</v>
       </c>
-      <c r="BI8">
+      <c r="BI8" t="n">
         <v>311910</v>
       </c>
-      <c r="BJ8">
+      <c r="BJ8" t="n">
         <v>349523</v>
       </c>
-      <c r="BK8">
+      <c r="BK8" t="n">
         <v>413292</v>
       </c>
-      <c r="BL8">
+      <c r="BL8" t="n">
         <v>472928</v>
       </c>
-      <c r="BM8">
+      <c r="BM8" t="n">
         <v>497777</v>
       </c>
-      <c r="BN8">
+      <c r="BN8" t="n">
         <v>600218</v>
       </c>
-      <c r="BO8">
+      <c r="BO8" t="n">
         <v>696810</v>
       </c>
-      <c r="BP8">
+      <c r="BP8" t="n">
         <v>817325</v>
       </c>
-      <c r="BQ8">
+      <c r="BQ8" t="n">
         <v>922802</v>
       </c>
-      <c r="BR8">
+      <c r="BR8" t="n">
         <v>1031905</v>
       </c>
-      <c r="BS8">
+      <c r="BS8" t="n">
         <v>601029</v>
       </c>
-      <c r="BT8">
+      <c r="BT8" t="n">
         <v>514561</v>
       </c>
+      <c r="BU8" t="inlineStr"/>
     </row>
-    <row r="9" spans="1:73">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AR9">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Financial and insurance activities</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
+      <c r="AR9" t="n">
         <v>273040</v>
       </c>
-      <c r="AS9">
+      <c r="AS9" t="n">
         <v>326640</v>
       </c>
-      <c r="AT9">
+      <c r="AT9" t="n">
         <v>339151</v>
       </c>
-      <c r="AU9">
+      <c r="AU9" t="n">
         <v>368592</v>
       </c>
-      <c r="AV9">
+      <c r="AV9" t="n">
         <v>300630</v>
       </c>
-      <c r="AW9">
+      <c r="AW9" t="n">
         <v>212363</v>
       </c>
-      <c r="AX9">
+      <c r="AX9" t="n">
         <v>172120</v>
       </c>
-      <c r="AY9">
+      <c r="AY9" t="n">
         <v>193216</v>
       </c>
-      <c r="AZ9">
+      <c r="AZ9" t="n">
         <v>230983</v>
       </c>
-      <c r="BA9">
+      <c r="BA9" t="n">
         <v>276618</v>
       </c>
-      <c r="BB9">
+      <c r="BB9" t="n">
         <v>317142</v>
       </c>
-      <c r="BC9">
+      <c r="BC9" t="n">
         <v>367355</v>
       </c>
-      <c r="BD9">
+      <c r="BD9" t="n">
         <v>417104</v>
       </c>
-      <c r="BE9">
+      <c r="BE9" t="n">
         <v>448545</v>
       </c>
-      <c r="BF9">
+      <c r="BF9" t="n">
         <v>492921</v>
       </c>
-      <c r="BG9">
+      <c r="BG9" t="n">
         <v>523522</v>
       </c>
-      <c r="BH9">
+      <c r="BH9" t="n">
         <v>553900</v>
       </c>
-      <c r="BI9">
+      <c r="BI9" t="n">
         <v>580531</v>
       </c>
-      <c r="BJ9">
+      <c r="BJ9" t="n">
         <v>644682</v>
       </c>
-      <c r="BK9">
+      <c r="BK9" t="n">
         <v>744615</v>
       </c>
-      <c r="BL9">
+      <c r="BL9" t="n">
         <v>871377</v>
       </c>
-      <c r="BM9">
+      <c r="BM9" t="n">
         <v>961263</v>
       </c>
-      <c r="BN9">
+      <c r="BN9" t="n">
         <v>1037967</v>
       </c>
-      <c r="BO9">
+      <c r="BO9" t="n">
         <v>1120954</v>
       </c>
-      <c r="BP9">
+      <c r="BP9" t="n">
         <v>1181247</v>
       </c>
-      <c r="BQ9">
+      <c r="BQ9" t="n">
         <v>1240877</v>
       </c>
-      <c r="BR9">
+      <c r="BR9" t="n">
         <v>1268410</v>
       </c>
-      <c r="BS9">
+      <c r="BS9" t="n">
         <v>1289139</v>
       </c>
-      <c r="BT9">
+      <c r="BT9" t="n">
         <v>1339185</v>
       </c>
+      <c r="BU9" t="inlineStr"/>
     </row>
-    <row r="10" spans="1:73">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Public Administration and Defence; Compulsory Social Security</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>791.7025192</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>1333.130304</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>1387.495643</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>1614.052409</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>1899.002437</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>2301.726018</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>2474.43672</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>2549.000268</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="n">
         <v>2529.696143</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <v>2727.186601</v>
       </c>
-      <c r="L10">
+      <c r="L10" t="n">
         <v>2896.945299</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="n">
         <v>3114.612701</v>
       </c>
-      <c r="N10">
+      <c r="N10" t="n">
         <v>3444.942125</v>
       </c>
-      <c r="O10">
+      <c r="O10" t="n">
         <v>3610.981882</v>
       </c>
-      <c r="P10">
+      <c r="P10" t="n">
         <v>3925.888642</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" t="n">
         <v>4171.995001</v>
       </c>
-      <c r="R10">
+      <c r="R10" t="n">
         <v>4740.555381</v>
       </c>
-      <c r="S10">
+      <c r="S10" t="n">
         <v>5517.15767</v>
       </c>
-      <c r="T10">
+      <c r="T10" t="n">
         <v>6090.312035</v>
       </c>
-      <c r="U10">
+      <c r="U10" t="n">
         <v>6722.531927</v>
       </c>
-      <c r="V10">
+      <c r="V10" t="n">
         <v>7252.65273</v>
       </c>
-      <c r="W10">
+      <c r="W10" t="n">
         <v>7881.796099</v>
       </c>
-      <c r="X10">
+      <c r="X10" t="n">
         <v>9133.081241</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" t="n">
         <v>11450.60936</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" t="n">
         <v>13371.04699</v>
       </c>
-      <c r="AA10">
+      <c r="AA10" t="n">
         <v>14683.34603</v>
       </c>
-      <c r="AB10">
+      <c r="AB10" t="n">
         <v>16339.72349</v>
       </c>
-      <c r="AC10">
+      <c r="AC10" t="n">
         <v>19833.51965</v>
       </c>
-      <c r="AD10">
+      <c r="AD10" t="n">
         <v>23489.35274</v>
       </c>
-      <c r="AE10">
+      <c r="AE10" t="n">
         <v>30718</v>
       </c>
-      <c r="AF10">
+      <c r="AF10" t="n">
         <v>33361</v>
       </c>
-      <c r="AG10">
+      <c r="AG10" t="n">
         <v>39815</v>
       </c>
-      <c r="AH10">
+      <c r="AH10" t="n">
         <v>44704</v>
       </c>
-      <c r="AI10">
+      <c r="AI10" t="n">
         <v>45090</v>
       </c>
-      <c r="AJ10">
+      <c r="AJ10" t="n">
         <v>48679</v>
       </c>
-      <c r="AK10">
+      <c r="AK10" t="n">
         <v>50681</v>
       </c>
-      <c r="AL10">
+      <c r="AL10" t="n">
         <v>52726</v>
       </c>
-      <c r="AM10">
+      <c r="AM10" t="n">
         <v>56488</v>
       </c>
-      <c r="AN10">
+      <c r="AN10" t="n">
         <v>64621</v>
       </c>
-      <c r="AO10">
+      <c r="AO10" t="n">
         <v>76556</v>
       </c>
-      <c r="AP10">
+      <c r="AP10" t="n">
         <v>86925</v>
       </c>
-      <c r="AQ10">
+      <c r="AQ10" t="n">
         <v>105392</v>
       </c>
-      <c r="AR10">
+      <c r="AR10" t="n">
         <v>134404</v>
       </c>
-      <c r="AS10">
+      <c r="AS10" t="n">
         <v>148293</v>
       </c>
-      <c r="AT10">
+      <c r="AT10" t="n">
         <v>191880</v>
       </c>
-      <c r="AU10">
+      <c r="AU10" t="n">
         <v>210201</v>
       </c>
-      <c r="AV10">
+      <c r="AV10" t="n">
         <v>232547</v>
       </c>
-      <c r="AW10">
+      <c r="AW10" t="n">
         <v>261279</v>
       </c>
-      <c r="AX10">
+      <c r="AX10" t="n">
         <v>283147</v>
       </c>
-      <c r="AY10">
+      <c r="AY10" t="n">
         <v>300002</v>
       </c>
-      <c r="AZ10">
+      <c r="AZ10" t="n">
         <v>317382</v>
       </c>
-      <c r="BA10">
+      <c r="BA10" t="n">
         <v>340610</v>
       </c>
-      <c r="BB10">
+      <c r="BB10" t="n">
         <v>359819</v>
       </c>
-      <c r="BC10">
+      <c r="BC10" t="n">
         <v>393384</v>
       </c>
-      <c r="BD10">
+      <c r="BD10" t="n">
         <v>437975</v>
       </c>
-      <c r="BE10">
+      <c r="BE10" t="n">
         <v>482560</v>
       </c>
-      <c r="BF10">
+      <c r="BF10" t="n">
         <v>530042</v>
       </c>
-      <c r="BG10">
+      <c r="BG10" t="n">
         <v>577397</v>
       </c>
-      <c r="BH10">
+      <c r="BH10" t="n">
         <v>606399</v>
       </c>
-      <c r="BI10">
+      <c r="BI10" t="n">
         <v>640207</v>
       </c>
-      <c r="BJ10">
+      <c r="BJ10" t="n">
         <v>681051</v>
       </c>
-      <c r="BK10">
+      <c r="BK10" t="n">
         <v>732534</v>
       </c>
-      <c r="BL10">
+      <c r="BL10" t="n">
         <v>765984</v>
       </c>
-      <c r="BM10">
+      <c r="BM10" t="n">
         <v>802790</v>
       </c>
-      <c r="BN10">
+      <c r="BN10" t="n">
         <v>843416</v>
       </c>
-      <c r="BO10">
+      <c r="BO10" t="n">
         <v>881905</v>
       </c>
-      <c r="BP10">
+      <c r="BP10" t="n">
         <v>917355</v>
       </c>
-      <c r="BQ10">
+      <c r="BQ10" t="n">
         <v>957153</v>
       </c>
-      <c r="BR10">
+      <c r="BR10" t="n">
         <v>993339</v>
       </c>
-      <c r="BS10">
+      <c r="BS10" t="n">
         <v>1028267</v>
       </c>
-      <c r="BT10">
+      <c r="BT10" t="n">
         <v>1055109</v>
       </c>
+      <c r="BU10" t="inlineStr"/>
     </row>
-    <row r="11" spans="1:73">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR11">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
+      <c r="AR11" t="n">
         <v>113905</v>
       </c>
-      <c r="AS11">
+      <c r="AS11" t="n">
         <v>124455</v>
       </c>
-      <c r="AT11">
+      <c r="AT11" t="n">
         <v>145751</v>
       </c>
-      <c r="AU11">
+      <c r="AU11" t="n">
         <v>158607</v>
       </c>
-      <c r="AV11">
+      <c r="AV11" t="n">
         <v>173478</v>
       </c>
-      <c r="AW11">
+      <c r="AW11" t="n">
         <v>192429</v>
       </c>
-      <c r="AX11">
+      <c r="AX11" t="n">
         <v>196426</v>
       </c>
-      <c r="AY11">
+      <c r="AY11" t="n">
         <v>203392</v>
       </c>
-      <c r="AZ11">
+      <c r="AZ11" t="n">
         <v>209593</v>
       </c>
-      <c r="BA11">
+      <c r="BA11" t="n">
         <v>214706</v>
       </c>
-      <c r="BB11">
+      <c r="BB11" t="n">
         <v>227614</v>
       </c>
-      <c r="BC11">
+      <c r="BC11" t="n">
         <v>261663</v>
       </c>
-      <c r="BD11">
+      <c r="BD11" t="n">
         <v>289227</v>
       </c>
-      <c r="BE11">
+      <c r="BE11" t="n">
         <v>319071</v>
       </c>
-      <c r="BF11">
+      <c r="BF11" t="n">
         <v>349614</v>
       </c>
-      <c r="BG11">
+      <c r="BG11" t="n">
         <v>372104</v>
       </c>
-      <c r="BH11">
+      <c r="BH11" t="n">
         <v>393674</v>
       </c>
-      <c r="BI11">
+      <c r="BI11" t="n">
         <v>417863</v>
       </c>
-      <c r="BJ11">
+      <c r="BJ11" t="n">
         <v>454249</v>
       </c>
-      <c r="BK11">
+      <c r="BK11" t="n">
         <v>503346</v>
       </c>
-      <c r="BL11">
+      <c r="BL11" t="n">
         <v>528167</v>
       </c>
-      <c r="BM11">
+      <c r="BM11" t="n">
         <v>565146</v>
       </c>
-      <c r="BN11">
+      <c r="BN11" t="n">
         <v>594280</v>
       </c>
-      <c r="BO11">
+      <c r="BO11" t="n">
         <v>612299</v>
       </c>
-      <c r="BP11">
+      <c r="BP11" t="n">
         <v>629952</v>
       </c>
-      <c r="BQ11">
+      <c r="BQ11" t="n">
         <v>651305</v>
       </c>
-      <c r="BR11">
+      <c r="BR11" t="n">
         <v>672087</v>
       </c>
-      <c r="BS11">
+      <c r="BS11" t="n">
         <v>690437</v>
       </c>
-      <c r="BT11">
+      <c r="BT11" t="n">
         <v>705605</v>
       </c>
+      <c r="BU11" t="inlineStr"/>
     </row>
-    <row r="12" spans="1:73">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="AR12">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Health and Social Work</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr"/>
+      <c r="AO12" t="inlineStr"/>
+      <c r="AP12" t="inlineStr"/>
+      <c r="AQ12" t="inlineStr"/>
+      <c r="AR12" t="n">
         <v>57926</v>
       </c>
-      <c r="AS12">
+      <c r="AS12" t="n">
         <v>64006</v>
       </c>
-      <c r="AT12">
+      <c r="AT12" t="n">
         <v>72662</v>
       </c>
-      <c r="AU12">
+      <c r="AU12" t="n">
         <v>80960</v>
       </c>
-      <c r="AV12">
+      <c r="AV12" t="n">
         <v>84535</v>
       </c>
-      <c r="AW12">
+      <c r="AW12" t="n">
         <v>89843</v>
       </c>
-      <c r="AX12">
+      <c r="AX12" t="n">
         <v>96767</v>
       </c>
-      <c r="AY12">
+      <c r="AY12" t="n">
         <v>101383</v>
       </c>
-      <c r="AZ12">
+      <c r="AZ12" t="n">
         <v>110048</v>
       </c>
-      <c r="BA12">
+      <c r="BA12" t="n">
         <v>119136</v>
       </c>
-      <c r="BB12">
+      <c r="BB12" t="n">
         <v>121035</v>
       </c>
-      <c r="BC12">
+      <c r="BC12" t="n">
         <v>135682</v>
       </c>
-      <c r="BD12">
+      <c r="BD12" t="n">
         <v>145188</v>
       </c>
-      <c r="BE12">
+      <c r="BE12" t="n">
         <v>154862</v>
       </c>
-      <c r="BF12">
+      <c r="BF12" t="n">
         <v>163116</v>
       </c>
-      <c r="BG12">
+      <c r="BG12" t="n">
         <v>172322</v>
       </c>
-      <c r="BH12">
+      <c r="BH12" t="n">
         <v>193355</v>
       </c>
-      <c r="BI12">
+      <c r="BI12" t="n">
         <v>206441</v>
       </c>
-      <c r="BJ12">
+      <c r="BJ12" t="n">
         <v>219165</v>
       </c>
-      <c r="BK12">
+      <c r="BK12" t="n">
         <v>235802</v>
       </c>
-      <c r="BL12">
+      <c r="BL12" t="n">
         <v>250812</v>
       </c>
-      <c r="BM12">
+      <c r="BM12" t="n">
         <v>270681</v>
       </c>
-      <c r="BN12">
+      <c r="BN12" t="n">
         <v>288404</v>
       </c>
-      <c r="BO12">
+      <c r="BO12" t="n">
         <v>307430</v>
       </c>
-      <c r="BP12">
+      <c r="BP12" t="n">
         <v>328165</v>
       </c>
-      <c r="BQ12">
+      <c r="BQ12" t="n">
         <v>351183</v>
       </c>
-      <c r="BR12">
+      <c r="BR12" t="n">
         <v>370780</v>
       </c>
-      <c r="BS12">
+      <c r="BS12" t="n">
         <v>387953</v>
       </c>
-      <c r="BT12">
+      <c r="BT12" t="n">
         <v>409592</v>
       </c>
+      <c r="BU12" t="inlineStr"/>
     </row>
-    <row r="13" spans="1:73">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="AR13">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Private Household with Employed Persons</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr"/>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr"/>
+      <c r="AO13" t="inlineStr"/>
+      <c r="AP13" t="inlineStr"/>
+      <c r="AQ13" t="inlineStr"/>
+      <c r="AR13" t="n">
         <v>11014</v>
       </c>
-      <c r="AS13">
+      <c r="AS13" t="n">
         <v>11872</v>
       </c>
-      <c r="AT13">
+      <c r="AT13" t="n">
         <v>12801</v>
       </c>
-      <c r="AU13">
+      <c r="AU13" t="n">
         <v>13691</v>
       </c>
-      <c r="AV13">
+      <c r="AV13" t="n">
         <v>14837</v>
       </c>
-      <c r="AW13">
+      <c r="AW13" t="n">
         <v>15363</v>
       </c>
-      <c r="AX13">
+      <c r="AX13" t="n">
         <v>15269</v>
       </c>
-      <c r="AY13">
+      <c r="AY13" t="n">
         <v>16833</v>
       </c>
-      <c r="AZ13">
+      <c r="AZ13" t="n">
         <v>18176</v>
       </c>
-      <c r="BA13">
+      <c r="BA13" t="n">
         <v>17607</v>
       </c>
-      <c r="BB13">
+      <c r="BB13" t="n">
         <v>19554</v>
       </c>
-      <c r="BC13">
+      <c r="BC13" t="n">
         <v>18600</v>
       </c>
-      <c r="BD13">
+      <c r="BD13" t="n">
         <v>17667</v>
       </c>
-      <c r="BE13">
+      <c r="BE13" t="n">
         <v>16673</v>
       </c>
-      <c r="BF13">
+      <c r="BF13" t="n">
         <v>18004</v>
       </c>
-      <c r="BG13">
+      <c r="BG13" t="n">
         <v>16673</v>
       </c>
-      <c r="BH13">
+      <c r="BH13" t="n">
         <v>17371</v>
       </c>
-      <c r="BI13">
+      <c r="BI13" t="n">
         <v>17907</v>
       </c>
-      <c r="BJ13">
+      <c r="BJ13" t="n">
         <v>20502</v>
       </c>
-      <c r="BK13">
+      <c r="BK13" t="n">
         <v>22622</v>
       </c>
-      <c r="BL13">
+      <c r="BL13" t="n">
         <v>23297</v>
       </c>
-      <c r="BM13">
+      <c r="BM13" t="n">
         <v>24775</v>
       </c>
-      <c r="BN13">
+      <c r="BN13" t="n">
         <v>27809</v>
       </c>
-      <c r="BO13">
+      <c r="BO13" t="n">
         <v>28103</v>
       </c>
-      <c r="BP13">
+      <c r="BP13" t="n">
         <v>27424</v>
       </c>
-      <c r="BQ13">
+      <c r="BQ13" t="n">
         <v>27369</v>
       </c>
-      <c r="BR13">
+      <c r="BR13" t="n">
         <v>28065</v>
       </c>
-      <c r="BS13">
+      <c r="BS13" t="n">
         <v>28854</v>
       </c>
-      <c r="BT13">
+      <c r="BT13" t="n">
         <v>28740</v>
       </c>
+      <c r="BU13" t="inlineStr"/>
     </row>
-    <row r="14" spans="1:73">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Gross Domestic Product</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
         <v>30567.43533</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>32138.84933</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>35291.37962</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>35136.59952</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="n">
         <v>42793.26998</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="n">
         <v>44184.41407</v>
       </c>
-      <c r="H14">
+      <c r="H14" t="n">
         <v>45323.83224</v>
       </c>
-      <c r="I14">
+      <c r="I14" t="n">
         <v>47139.73781</v>
       </c>
-      <c r="J14">
+      <c r="J14" t="n">
         <v>52541.71264</v>
       </c>
-      <c r="K14">
+      <c r="K14" t="n">
         <v>59077.07795</v>
       </c>
-      <c r="L14">
+      <c r="L14" t="n">
         <v>64477.48116</v>
       </c>
-      <c r="M14">
+      <c r="M14" t="n">
         <v>69876.84411999999</v>
       </c>
-      <c r="N14">
+      <c r="N14" t="n">
         <v>74536.94349000001</v>
       </c>
-      <c r="O14">
+      <c r="O14" t="n">
         <v>81674.58962</v>
       </c>
-      <c r="P14">
+      <c r="P14" t="n">
         <v>91800.00869</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" t="n">
         <v>109395.8623</v>
       </c>
-      <c r="R14">
+      <c r="R14" t="n">
         <v>117445.9553</v>
       </c>
-      <c r="S14">
+      <c r="S14" t="n">
         <v>126456.5705</v>
       </c>
-      <c r="T14">
+      <c r="T14" t="n">
         <v>139128.6412</v>
       </c>
-      <c r="U14">
+      <c r="U14" t="n">
         <v>147385</v>
       </c>
-      <c r="V14">
+      <c r="V14" t="n">
         <v>153417</v>
       </c>
-      <c r="W14">
+      <c r="W14" t="n">
         <v>170076</v>
       </c>
-      <c r="X14">
+      <c r="X14" t="n">
         <v>222110</v>
       </c>
-      <c r="Y14">
+      <c r="Y14" t="n">
         <v>279206</v>
       </c>
-      <c r="Z14">
+      <c r="Z14" t="n">
         <v>303319</v>
       </c>
-      <c r="AA14">
+      <c r="AA14" t="n">
         <v>346516</v>
       </c>
-      <c r="AB14">
+      <c r="AB14" t="n">
         <v>403529</v>
       </c>
-      <c r="AC14">
+      <c r="AC14" t="n">
         <v>488226</v>
       </c>
-      <c r="AD14">
+      <c r="AD14" t="n">
         <v>558861</v>
       </c>
-      <c r="AE14">
+      <c r="AE14" t="n">
         <v>662482</v>
       </c>
-      <c r="AF14">
+      <c r="AF14" t="n">
         <v>760356</v>
       </c>
-      <c r="AG14">
+      <c r="AG14" t="n">
         <v>841569</v>
       </c>
-      <c r="AH14">
+      <c r="AH14" t="n">
         <v>920989</v>
       </c>
-      <c r="AI14">
+      <c r="AI14" t="n">
         <v>988070</v>
       </c>
-      <c r="AJ14">
+      <c r="AJ14" t="n">
         <v>1056496</v>
       </c>
-      <c r="AK14">
+      <c r="AK14" t="n">
         <v>1133397</v>
       </c>
-      <c r="AL14">
+      <c r="AL14" t="n">
         <v>1299913</v>
       </c>
-      <c r="AM14">
+      <c r="AM14" t="n">
         <v>1559804</v>
       </c>
-      <c r="AN14">
+      <c r="AN14" t="n">
         <v>1856992</v>
       </c>
-      <c r="AO14">
+      <c r="AO14" t="n">
         <v>2183545</v>
       </c>
-      <c r="AP14">
+      <c r="AP14" t="n">
         <v>2506635</v>
       </c>
-      <c r="AQ14">
+      <c r="AQ14" t="n">
         <v>2830914</v>
       </c>
-      <c r="AR14">
+      <c r="AR14" t="n">
         <v>3263426</v>
       </c>
-      <c r="AS14">
+      <c r="AS14" t="n">
         <v>3689090</v>
       </c>
-      <c r="AT14">
+      <c r="AT14" t="n">
         <v>4217614</v>
       </c>
-      <c r="AU14">
+      <c r="AU14" t="n">
         <v>4638604</v>
       </c>
-      <c r="AV14">
+      <c r="AV14" t="n">
         <v>4710310</v>
       </c>
-      <c r="AW14">
+      <c r="AW14" t="n">
         <v>4701553</v>
       </c>
-      <c r="AX14">
+      <c r="AX14" t="n">
         <v>4789826</v>
       </c>
-      <c r="AY14">
+      <c r="AY14" t="n">
         <v>5069820</v>
       </c>
-      <c r="AZ14">
+      <c r="AZ14" t="n">
         <v>5345001</v>
       </c>
-      <c r="BA14">
+      <c r="BA14" t="n">
         <v>5769578</v>
       </c>
-      <c r="BB14">
+      <c r="BB14" t="n">
         <v>6317303</v>
       </c>
-      <c r="BC14">
+      <c r="BC14" t="n">
         <v>6954282</v>
       </c>
-      <c r="BD14">
+      <c r="BD14" t="n">
         <v>7614411</v>
       </c>
-      <c r="BE14">
+      <c r="BE14" t="n">
         <v>8400644</v>
       </c>
-      <c r="BF14">
+      <c r="BF14" t="n">
         <v>9076301</v>
       </c>
-      <c r="BG14">
+      <c r="BG14" t="n">
         <v>9706929</v>
       </c>
-      <c r="BH14">
+      <c r="BH14" t="n">
         <v>9658667</v>
       </c>
-      <c r="BI14">
+      <c r="BI14" t="n">
         <v>10808145</v>
       </c>
-      <c r="BJ14">
+      <c r="BJ14" t="n">
         <v>11306906</v>
       </c>
-      <c r="BK14">
+      <c r="BK14" t="n">
         <v>12357342</v>
       </c>
-      <c r="BL14">
+      <c r="BL14" t="n">
         <v>12915158</v>
       </c>
-      <c r="BM14">
+      <c r="BM14" t="n">
         <v>13230304</v>
       </c>
-      <c r="BN14">
+      <c r="BN14" t="n">
         <v>13743480</v>
       </c>
-      <c r="BO14">
+      <c r="BO14" t="n">
         <v>14590337</v>
       </c>
-      <c r="BP14">
+      <c r="BP14" t="n">
         <v>15488664</v>
       </c>
-      <c r="BQ14">
+      <c r="BQ14" t="n">
         <v>16373343</v>
       </c>
-      <c r="BR14">
+      <c r="BR14" t="n">
         <v>16892411</v>
       </c>
-      <c r="BS14">
+      <c r="BS14" t="n">
         <v>15636891</v>
       </c>
-      <c r="BT14">
+      <c r="BT14" t="n">
         <v>16178719</v>
       </c>
+      <c r="BU14" t="inlineStr"/>
     </row>
-    <row r="15" spans="1:73">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="U15">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Plus : Net Factor Income Payment from the Rest of the World</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="n">
         <v>221</v>
       </c>
-      <c r="V15">
+      <c r="V15" t="n">
         <v>-138</v>
       </c>
-      <c r="W15">
+      <c r="W15" t="n">
         <v>-609</v>
       </c>
-      <c r="X15">
+      <c r="X15" t="n">
         <v>-872</v>
       </c>
-      <c r="Y15">
+      <c r="Y15" t="n">
         <v>-94</v>
       </c>
-      <c r="Z15">
+      <c r="Z15" t="n">
         <v>-13</v>
       </c>
-      <c r="AA15">
+      <c r="AA15" t="n">
         <v>-884</v>
       </c>
-      <c r="AB15">
+      <c r="AB15" t="n">
         <v>-1277</v>
       </c>
-      <c r="AC15">
+      <c r="AC15" t="n">
         <v>-3622</v>
       </c>
-      <c r="AD15">
+      <c r="AD15" t="n">
         <v>-6225</v>
       </c>
-      <c r="AE15">
+      <c r="AE15" t="n">
         <v>-5394</v>
       </c>
-      <c r="AF15">
+      <c r="AF15" t="n">
         <v>-12035</v>
       </c>
-      <c r="AG15">
+      <c r="AG15" t="n">
         <v>-12922</v>
       </c>
-      <c r="AH15">
+      <c r="AH15" t="n">
         <v>-6701</v>
       </c>
-      <c r="AI15">
+      <c r="AI15" t="n">
         <v>-11451</v>
       </c>
-      <c r="AJ15">
+      <c r="AJ15" t="n">
         <v>-17598</v>
       </c>
-      <c r="AK15">
+      <c r="AK15" t="n">
         <v>-22437</v>
       </c>
-      <c r="AL15">
+      <c r="AL15" t="n">
         <v>-22394</v>
       </c>
-      <c r="AM15">
+      <c r="AM15" t="n">
         <v>-24770</v>
       </c>
-      <c r="AN15">
+      <c r="AN15" t="n">
         <v>-23668</v>
       </c>
-      <c r="AO15">
+      <c r="AO15" t="n">
         <v>-27438</v>
       </c>
-      <c r="AP15">
+      <c r="AP15" t="n">
         <v>-36891</v>
       </c>
-      <c r="AQ15">
+      <c r="AQ15" t="n">
         <v>-62961</v>
       </c>
-      <c r="AR15">
+      <c r="AR15" t="n">
         <v>-54843</v>
       </c>
-      <c r="AS15">
+      <c r="AS15" t="n">
         <v>-65770</v>
       </c>
-      <c r="AT15">
+      <c r="AT15" t="n">
         <v>-81529</v>
       </c>
-      <c r="AU15">
+      <c r="AU15" t="n">
         <v>-116816</v>
       </c>
-      <c r="AV15">
+      <c r="AV15" t="n">
         <v>-140354</v>
       </c>
-      <c r="AW15">
+      <c r="AW15" t="n">
         <v>-182476</v>
       </c>
-      <c r="AX15">
+      <c r="AX15" t="n">
         <v>-146852</v>
       </c>
-      <c r="AY15">
+      <c r="AY15" t="n">
         <v>-99963</v>
       </c>
-      <c r="AZ15">
+      <c r="AZ15" t="n">
         <v>-149477</v>
       </c>
-      <c r="BA15">
+      <c r="BA15" t="n">
         <v>-202832</v>
       </c>
-      <c r="BB15">
+      <c r="BB15" t="n">
         <v>-258203</v>
       </c>
-      <c r="BC15">
+      <c r="BC15" t="n">
         <v>-302149</v>
       </c>
-      <c r="BD15">
+      <c r="BD15" t="n">
         <v>-341440</v>
       </c>
-      <c r="BE15">
+      <c r="BE15" t="n">
         <v>-312311</v>
       </c>
-      <c r="BF15">
+      <c r="BF15" t="n">
         <v>-308891</v>
       </c>
-      <c r="BG15">
+      <c r="BG15" t="n">
         <v>-354003</v>
       </c>
-      <c r="BH15">
+      <c r="BH15" t="n">
         <v>-338463</v>
       </c>
-      <c r="BI15">
+      <c r="BI15" t="n">
         <v>-452769</v>
       </c>
-      <c r="BJ15">
+      <c r="BJ15" t="n">
         <v>-272710</v>
       </c>
-      <c r="BK15">
+      <c r="BK15" t="n">
         <v>-566199</v>
       </c>
-      <c r="BL15">
+      <c r="BL15" t="n">
         <v>-825489</v>
       </c>
-      <c r="BM15">
+      <c r="BM15" t="n">
         <v>-680698</v>
       </c>
-      <c r="BN15">
+      <c r="BN15" t="n">
         <v>-708973</v>
       </c>
-      <c r="BO15">
+      <c r="BO15" t="n">
         <v>-685364</v>
       </c>
-      <c r="BP15">
+      <c r="BP15" t="n">
         <v>-693851</v>
       </c>
-      <c r="BQ15">
+      <c r="BQ15" t="n">
         <v>-793104</v>
       </c>
-      <c r="BR15">
+      <c r="BR15" t="n">
         <v>-627510</v>
       </c>
-      <c r="BS15">
+      <c r="BS15" t="n">
         <v>-359067</v>
       </c>
-      <c r="BT15">
+      <c r="BT15" t="n">
         <v>-556436</v>
       </c>
+      <c r="BU15" t="inlineStr"/>
     </row>
-    <row r="16" spans="1:73">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K16">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Gross National Income</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="n">
         <v>53884.9</v>
       </c>
-      <c r="L16">
+      <c r="L16" t="n">
         <v>58876.7</v>
       </c>
-      <c r="M16">
+      <c r="M16" t="n">
         <v>63694.6</v>
       </c>
-      <c r="N16">
+      <c r="N16" t="n">
         <v>68038.2</v>
       </c>
-      <c r="O16">
+      <c r="O16" t="n">
         <v>74588.60000000001</v>
       </c>
-      <c r="P16">
+      <c r="P16" t="n">
         <v>84291.89999999999</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" t="n">
         <v>101366.5</v>
       </c>
-      <c r="R16">
+      <c r="R16" t="n">
         <v>108392</v>
       </c>
-      <c r="S16">
+      <c r="S16" t="n">
         <v>117578</v>
       </c>
-      <c r="T16">
+      <c r="T16" t="n">
         <v>128792</v>
       </c>
-      <c r="U16">
+      <c r="U16" t="n">
         <v>147606</v>
       </c>
-      <c r="V16">
+      <c r="V16" t="n">
         <v>153279</v>
       </c>
-      <c r="W16">
+      <c r="W16" t="n">
         <v>169467</v>
       </c>
-      <c r="X16">
+      <c r="X16" t="n">
         <v>221238</v>
       </c>
-      <c r="Y16">
+      <c r="Y16" t="n">
         <v>279112</v>
       </c>
-      <c r="Z16">
+      <c r="Z16" t="n">
         <v>303306</v>
       </c>
-      <c r="AA16">
+      <c r="AA16" t="n">
         <v>345632</v>
       </c>
-      <c r="AB16">
+      <c r="AB16" t="n">
         <v>402252</v>
       </c>
-      <c r="AC16">
+      <c r="AC16" t="n">
         <v>484604</v>
       </c>
-      <c r="AD16">
+      <c r="AD16" t="n">
         <v>552636</v>
       </c>
-      <c r="AE16">
+      <c r="AE16" t="n">
         <v>657088</v>
       </c>
-      <c r="AF16">
+      <c r="AF16" t="n">
         <v>748321</v>
       </c>
-      <c r="AG16">
+      <c r="AG16" t="n">
         <v>828647</v>
       </c>
-      <c r="AH16">
+      <c r="AH16" t="n">
         <v>914288</v>
       </c>
-      <c r="AI16">
+      <c r="AI16" t="n">
         <v>976619</v>
       </c>
-      <c r="AJ16">
+      <c r="AJ16" t="n">
         <v>1038898</v>
       </c>
-      <c r="AK16">
+      <c r="AK16" t="n">
         <v>1110960</v>
       </c>
-      <c r="AL16">
+      <c r="AL16" t="n">
         <v>1277519</v>
       </c>
-      <c r="AM16">
+      <c r="AM16" t="n">
         <v>1535034</v>
       </c>
-      <c r="AN16">
+      <c r="AN16" t="n">
         <v>1833324</v>
       </c>
-      <c r="AO16">
+      <c r="AO16" t="n">
         <v>2156107</v>
       </c>
-      <c r="AP16">
+      <c r="AP16" t="n">
         <v>2469744</v>
       </c>
-      <c r="AQ16">
+      <c r="AQ16" t="n">
         <v>2767953</v>
       </c>
-      <c r="AR16">
+      <c r="AR16" t="n">
         <v>3208583</v>
       </c>
-      <c r="AS16">
+      <c r="AS16" t="n">
         <v>3623320</v>
       </c>
-      <c r="AT16">
+      <c r="AT16" t="n">
         <v>4136085</v>
       </c>
-      <c r="AU16">
+      <c r="AU16" t="n">
         <v>4521788</v>
       </c>
-      <c r="AV16">
+      <c r="AV16" t="n">
         <v>4569956</v>
       </c>
-      <c r="AW16">
+      <c r="AW16" t="n">
         <v>4519077</v>
       </c>
-      <c r="AX16">
+      <c r="AX16" t="n">
         <v>4642974</v>
       </c>
-      <c r="AY16">
+      <c r="AY16" t="n">
         <v>4969857</v>
       </c>
-      <c r="AZ16">
+      <c r="AZ16" t="n">
         <v>5195524</v>
       </c>
-      <c r="BA16">
+      <c r="BA16" t="n">
         <v>5566746</v>
       </c>
-      <c r="BB16">
+      <c r="BB16" t="n">
         <v>6059100</v>
       </c>
-      <c r="BC16">
+      <c r="BC16" t="n">
         <v>6652133</v>
       </c>
-      <c r="BD16">
+      <c r="BD16" t="n">
         <v>7272971</v>
       </c>
-      <c r="BE16">
+      <c r="BE16" t="n">
         <v>8088333</v>
       </c>
-      <c r="BF16">
+      <c r="BF16" t="n">
         <v>8767410</v>
       </c>
-      <c r="BG16">
+      <c r="BG16" t="n">
         <v>9352926</v>
       </c>
-      <c r="BH16">
+      <c r="BH16" t="n">
         <v>9320204</v>
       </c>
-      <c r="BI16">
+      <c r="BI16" t="n">
         <v>10355376</v>
       </c>
-      <c r="BJ16">
+      <c r="BJ16" t="n">
         <v>11034196</v>
       </c>
-      <c r="BK16">
+      <c r="BK16" t="n">
         <v>11791143</v>
       </c>
-      <c r="BL16">
+      <c r="BL16" t="n">
         <v>12089669</v>
       </c>
-      <c r="BM16">
+      <c r="BM16" t="n">
         <v>12549606</v>
       </c>
-      <c r="BN16">
+      <c r="BN16" t="n">
         <v>13034507</v>
       </c>
-      <c r="BO16">
+      <c r="BO16" t="n">
         <v>13904973</v>
       </c>
-      <c r="BP16">
+      <c r="BP16" t="n">
         <v>14794813</v>
       </c>
-      <c r="BQ16">
+      <c r="BQ16" t="n">
         <v>15580239</v>
       </c>
-      <c r="BR16">
+      <c r="BR16" t="n">
         <v>16264901</v>
       </c>
-      <c r="BS16">
+      <c r="BS16" t="n">
         <v>15277824</v>
       </c>
-      <c r="BT16">
+      <c r="BT16" t="n">
         <v>15622283</v>
       </c>
+      <c r="BU16" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>